--- a/docs/2程序设计/程序设计.xlsx
+++ b/docs/2程序设计/程序设计.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="业务规则" sheetId="1" r:id="rId1"/>
+    <sheet name="附件1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>上市公司-监测预警</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,26 +50,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各种风险规则：待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热点规则：待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上市公司-负面新闻跟踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业公告预警表（COMPY_ANNOUNCE_ALARM）
+    <t>各种风险规则：待定
+VW_COMPY_WARNINGS的TYPE_ID NOT IN (10, 12, 107)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业公告预警表(COMPY_ANNOUNCE_ALARM)
 预警关键字表（LKP_ALARM_KEYWORD）
-企业预警视图(VW_COMPY_WARNINGS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻正文表（NEWS_BASICINFO）
-企业新闻关联表(XW_NEWS_COMPANY)</t>
+企业预警视图(VW_COMPY_WARNINGS)
+企业事件类型表(COMPY_EVENT_TYPE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻条件：B.SCORE &lt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告的分类规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻的分类规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RULE表中的SHEET_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告 1是事件 2是风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻 0是事件 1是风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">热点规则：待定
+关联性&gt;0.01或重要性&gt;0
+(B.RELEVANCE &gt; 0.01 OR B.IMPORTANCE &gt; 0)
+Z.LABEL为事件标签
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,6 +110,11 @@
 企业新闻关联表(XW_NEWS_COMPANY)
 规则表(rule)
 企业基础临时表(sheet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻正文表（NEWS_BASICINFO）
+企业新闻关联表(XW_NEWS_COMPANY)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,6 +232,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="D:\Program Files (x86)\Tencent\QQ\mydata\23281190\Image\C2C\T8H(~HYB`L2T]~9P}98~TKB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9686925" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -493,10 +576,11 @@
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -509,8 +593,11 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="48">
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,13 +605,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -532,137 +620,174 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48">
+    </row>
+    <row r="4" spans="1:5" ht="48">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -682,6 +807,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/docs/2程序设计/程序设计.xlsx
+++ b/docs/2程序设计/程序设计.xlsx
@@ -98,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">热点规则：待定
-关联性&gt;0.01或重要性&gt;0
-(B.RELEVANCE &gt; 0.01 OR B.IMPORTANCE &gt; 0)
-Z.LABEL为事件标签
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻正文表（NEWS_BASICINFO）
 企业新闻关联表(XW_NEWS_COMPANY)
 规则表(rule)
@@ -115,6 +107,13 @@
   <si>
     <t>新闻正文表（NEWS_BASICINFO）
 企业新闻关联表(XW_NEWS_COMPANY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">关联性&gt;0.01或重要性&gt;0
+(B.RELEVANCE &gt; 0.01 OR B.IMPORTANCE &gt; 0)
+Z.LABEL为事件标签
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +566,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -612,7 +611,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="48">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,10 +619,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -637,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
